--- a/Lehrplan21_Data/Lehrplan21asExcel.xlsx
+++ b/Lehrplan21_Data/Lehrplan21asExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kl/Desktop/bachelor/GitDez/BachelorThesisFeatureModel/Lehrplan21_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22262490-35F7-7E4B-98D4-CA995E2ABA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51AAF72-A990-BA48-B61F-975E7D029116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="29260" windowHeight="19020" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
+    <workbookView xWindow="30200" yWindow="1060" windowWidth="45720" windowHeight="36820" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrplan 21 ohne MA.2" sheetId="1" r:id="rId1"/>
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1270,6 +1270,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1757,13 +1760,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="105" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245:D245"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="129.33203125" customWidth="1"/>
+    <col min="2" max="2" width="155.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
@@ -2727,13 +2730,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2">
@@ -3154,10 +3157,10 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3384,7 +3387,9 @@
         <v>3</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="8"/>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -3403,7 +3408,9 @@
         <v>3</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="8"/>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -3423,6 +3430,9 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="8"/>
+      <c r="J74" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -3442,6 +3452,9 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="8"/>
+      <c r="J75" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -3463,6 +3476,9 @@
         <v>1</v>
       </c>
       <c r="G76" s="8"/>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -3484,6 +3500,9 @@
         <v>1</v>
       </c>
       <c r="G77" s="8"/>
+      <c r="J77" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -3503,6 +3522,9 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="8"/>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -3522,6 +3544,9 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="8"/>
+      <c r="J79" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -3541,8 +3566,11 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3560,8 +3588,11 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3579,8 +3610,11 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3597,9 +3631,11 @@
         <v>2</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3619,8 +3655,11 @@
         <v>1</v>
       </c>
       <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J84" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3640,8 +3679,11 @@
         <v>1</v>
       </c>
       <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3659,8 +3701,11 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3677,9 +3722,11 @@
         <v>2.5</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3697,8 +3744,11 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3716,8 +3766,11 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J89" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3735,8 +3788,11 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3754,8 +3810,11 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3773,8 +3832,11 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3791,9 +3853,11 @@
         <v>3</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3811,8 +3875,11 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J94" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3830,8 +3897,11 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3849,8 +3919,11 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3868,8 +3941,11 @@
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3889,8 +3965,11 @@
         <v>1</v>
       </c>
       <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3908,8 +3987,11 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J99" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3927,8 +4009,11 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3945,9 +4030,11 @@
         <v>3</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3965,8 +4052,11 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3983,9 +4073,11 @@
         <v>3</v>
       </c>
       <c r="F103" s="2"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G103" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4003,8 +4095,11 @@
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4022,8 +4117,11 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4041,8 +4139,11 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4060,8 +4161,11 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4079,8 +4183,11 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4100,8 +4207,11 @@
         <v>1</v>
       </c>
       <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4119,8 +4229,11 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4138,8 +4251,11 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4157,8 +4273,11 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J112" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4176,8 +4295,11 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4195,8 +4317,11 @@
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J114" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4216,8 +4341,11 @@
         <v>1</v>
       </c>
       <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4237,8 +4365,11 @@
         <v>1</v>
       </c>
       <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J116" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4256,8 +4387,11 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J117" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4275,8 +4409,11 @@
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J118" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4294,8 +4431,11 @@
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J119" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4313,8 +4453,11 @@
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4332,8 +4475,11 @@
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J121" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4353,8 +4499,11 @@
         <v>1</v>
       </c>
       <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J122" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4372,8 +4521,11 @@
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4391,8 +4543,11 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J124" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4410,8 +4565,11 @@
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J125" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4431,8 +4589,11 @@
         <v>1</v>
       </c>
       <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J126" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4452,8 +4613,11 @@
         <v>1</v>
       </c>
       <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J127" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4471,8 +4635,11 @@
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4490,8 +4657,11 @@
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J129" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4509,8 +4679,11 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4528,8 +4701,11 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4549,8 +4725,11 @@
         <v>1</v>
       </c>
       <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J132" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4568,8 +4747,11 @@
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J133" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4587,8 +4769,11 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J134" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4606,8 +4791,11 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J135" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4627,8 +4815,11 @@
         <v>1</v>
       </c>
       <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J136" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4646,8 +4837,11 @@
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J137" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4665,8 +4859,11 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J138" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4684,8 +4881,11 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J139" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4705,8 +4905,11 @@
         <v>1</v>
       </c>
       <c r="G140" s="8"/>
-    </row>
-    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J140" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4724,8 +4927,11 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="8"/>
-    </row>
-    <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J141" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4743,8 +4949,11 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="8"/>
-    </row>
-    <row r="143" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4762,8 +4971,11 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J143" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4781,8 +4993,11 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J144" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4802,8 +5017,11 @@
         <v>1</v>
       </c>
       <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J145" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4823,8 +5041,11 @@
         <v>1</v>
       </c>
       <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J146" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4842,8 +5063,11 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J147" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4861,8 +5085,11 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J148" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4880,8 +5107,11 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J149" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4899,8 +5129,11 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J150" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4918,8 +5151,11 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J151" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4937,8 +5173,11 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J152" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4958,8 +5197,11 @@
         <v>1</v>
       </c>
       <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J153" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4977,8 +5219,11 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4998,8 +5243,11 @@
         <v>1</v>
       </c>
       <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5017,8 +5265,11 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5036,8 +5287,11 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5055,8 +5309,11 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="8"/>
-    </row>
-    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5074,8 +5331,11 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5093,8 +5353,11 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J160" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5114,8 +5377,11 @@
         <v>1</v>
       </c>
       <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5135,8 +5401,11 @@
         <v>1</v>
       </c>
       <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J162" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5154,8 +5423,11 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J163" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5173,8 +5445,11 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J164" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5192,8 +5467,11 @@
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5211,8 +5489,11 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J166" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5232,8 +5513,11 @@
         <v>1</v>
       </c>
       <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J167" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5253,8 +5537,11 @@
         <v>1</v>
       </c>
       <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5274,8 +5561,11 @@
         <v>1</v>
       </c>
       <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J169" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5293,8 +5583,11 @@
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J170" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5312,8 +5605,11 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J171" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5331,8 +5627,11 @@
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J172" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5350,8 +5649,11 @@
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J173" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5369,8 +5671,11 @@
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J174" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5388,8 +5693,11 @@
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J175" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5407,8 +5715,11 @@
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J176" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5428,8 +5739,11 @@
         <v>1</v>
       </c>
       <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J177" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5449,8 +5763,11 @@
         <v>1</v>
       </c>
       <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J178" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5468,8 +5785,11 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J179" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5487,8 +5807,11 @@
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J180" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5506,8 +5829,11 @@
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J181" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5525,8 +5851,11 @@
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J182" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5545,7 +5874,7 @@
       </c>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5566,7 +5895,7 @@
       </c>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5587,7 +5916,7 @@
       </c>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5608,7 +5937,7 @@
       </c>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5627,7 +5956,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5646,7 +5975,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5665,7 +5994,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5684,7 +6013,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5703,7 +6032,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6742,7 +7071,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C245" s="4" t="s">

--- a/Lehrplan21_Data/Lehrplan21asExcel.xlsx
+++ b/Lehrplan21_Data/Lehrplan21asExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kl/Desktop/bachelor/GitDez/BachelorThesisFeatureModel/Lehrplan21_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51AAF72-A990-BA48-B61F-975E7D029116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2B0F95-E72A-844D-A1AA-AA74A4FCC4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30200" yWindow="1060" windowWidth="45720" windowHeight="36820" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
   </bookViews>
@@ -1760,8 +1760,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2730,13 +2730,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2">
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3201,13 +3201,13 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="2">
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5873,6 +5873,9 @@
         <v>1</v>
       </c>
       <c r="G183" s="8"/>
+      <c r="J183" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
@@ -5894,6 +5897,9 @@
         <v>1</v>
       </c>
       <c r="G184" s="8"/>
+      <c r="J184" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
@@ -5915,6 +5921,9 @@
         <v>1</v>
       </c>
       <c r="G185" s="8"/>
+      <c r="J185" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
@@ -5935,7 +5944,9 @@
       <c r="F186" s="2">
         <v>1</v>
       </c>
-      <c r="G186" s="8"/>
+      <c r="G186" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
@@ -5955,6 +5966,9 @@
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="8"/>
+      <c r="J187" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
@@ -5974,6 +5988,9 @@
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="8"/>
+      <c r="J188" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
@@ -5993,6 +6010,9 @@
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="8"/>
+      <c r="J189" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
@@ -6012,6 +6032,9 @@
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="8"/>
+      <c r="J190" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
@@ -6031,6 +6054,9 @@
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="8"/>
+      <c r="J191" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
@@ -6050,8 +6076,11 @@
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="8"/>
-    </row>
-    <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J192" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6069,8 +6098,11 @@
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="8"/>
-    </row>
-    <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6088,8 +6120,11 @@
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="8"/>
-    </row>
-    <row r="195" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J194" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6109,8 +6144,11 @@
         <v>1</v>
       </c>
       <c r="G195" s="8"/>
-    </row>
-    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J195" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6130,8 +6168,11 @@
         <v>1</v>
       </c>
       <c r="G196" s="8"/>
-    </row>
-    <row r="197" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J196" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6151,8 +6192,11 @@
         <v>1</v>
       </c>
       <c r="G197" s="8"/>
-    </row>
-    <row r="198" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J197" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6170,8 +6214,11 @@
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J198" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6189,8 +6236,11 @@
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J199" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6208,8 +6258,11 @@
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="8"/>
-    </row>
-    <row r="201" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J200" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6227,8 +6280,11 @@
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="8"/>
-    </row>
-    <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J201" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6246,8 +6302,11 @@
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="8"/>
-    </row>
-    <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J202" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6265,8 +6324,11 @@
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="8"/>
-    </row>
-    <row r="204" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J203" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6286,8 +6348,11 @@
         <v>1</v>
       </c>
       <c r="G204" s="8"/>
-    </row>
-    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J204" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6305,8 +6370,11 @@
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="8"/>
-    </row>
-    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J205" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6324,8 +6392,11 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="8"/>
-    </row>
-    <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J206" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6343,8 +6414,11 @@
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="8"/>
-    </row>
-    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J207" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6362,8 +6436,11 @@
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="8"/>
-    </row>
-    <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6381,8 +6458,11 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="8"/>
-    </row>
-    <row r="210" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J209" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6400,8 +6480,11 @@
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="8"/>
-    </row>
-    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J210" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6419,8 +6502,11 @@
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="8"/>
-    </row>
-    <row r="212" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J211" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6438,8 +6524,11 @@
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="8"/>
-    </row>
-    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H212" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6459,8 +6548,11 @@
         <v>1</v>
       </c>
       <c r="G213" s="8"/>
-    </row>
-    <row r="214" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J213" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6480,8 +6572,11 @@
         <v>1</v>
       </c>
       <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J214" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6499,8 +6594,11 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="8"/>
-    </row>
-    <row r="216" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J215" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6518,8 +6616,11 @@
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="8"/>
-    </row>
-    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J216" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6537,8 +6638,11 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="8"/>
-    </row>
-    <row r="218" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J217" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6556,8 +6660,11 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J218" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6575,8 +6682,11 @@
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="8"/>
-    </row>
-    <row r="220" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J219" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6594,8 +6704,11 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="8"/>
-    </row>
-    <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J220" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6612,9 +6725,11 @@
         <v>2</v>
       </c>
       <c r="F221" s="2"/>
-      <c r="G221" s="8"/>
-    </row>
-    <row r="222" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G221" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6634,8 +6749,11 @@
         <v>1</v>
       </c>
       <c r="G222" s="8"/>
-    </row>
-    <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J222" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6653,8 +6771,11 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="8"/>
-    </row>
-    <row r="224" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J223" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6672,8 +6793,11 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="8"/>
-    </row>
-    <row r="225" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J224" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6691,8 +6815,11 @@
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="8"/>
-    </row>
-    <row r="226" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J225" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6712,8 +6839,11 @@
         <v>1</v>
       </c>
       <c r="G226" s="8"/>
-    </row>
-    <row r="227" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J226" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6731,8 +6861,11 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="8"/>
-    </row>
-    <row r="228" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6749,9 +6882,11 @@
         <v>3</v>
       </c>
       <c r="F228" s="2"/>
-      <c r="G228" s="8"/>
-    </row>
-    <row r="229" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G228" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6769,8 +6904,11 @@
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="8"/>
-    </row>
-    <row r="230" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J229" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6790,8 +6928,11 @@
         <v>1</v>
       </c>
       <c r="G230" s="8"/>
-    </row>
-    <row r="231" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J230" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6809,8 +6950,11 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="8"/>
-    </row>
-    <row r="232" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J231" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6828,8 +6972,11 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="8"/>
-    </row>
-    <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J232" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6849,8 +6996,11 @@
         <v>1</v>
       </c>
       <c r="G233" s="8"/>
-    </row>
-    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J233" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6870,8 +7020,11 @@
         <v>1</v>
       </c>
       <c r="G234" s="8"/>
-    </row>
-    <row r="235" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6889,8 +7042,11 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="8"/>
-    </row>
-    <row r="236" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6908,8 +7064,11 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="8"/>
-    </row>
-    <row r="237" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J236" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6927,8 +7086,11 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="8"/>
-    </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J237" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6946,8 +7108,11 @@
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="8"/>
-    </row>
-    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J238" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6965,8 +7130,11 @@
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="8"/>
-    </row>
-    <row r="240" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J239" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6984,8 +7152,11 @@
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="8"/>
-    </row>
-    <row r="241" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J240" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7005,8 +7176,11 @@
         <v>1</v>
       </c>
       <c r="G241" s="8"/>
-    </row>
-    <row r="242" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J241" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7026,8 +7200,11 @@
         <v>1</v>
       </c>
       <c r="G242" s="8"/>
-    </row>
-    <row r="243" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J242" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7047,8 +7224,11 @@
         <v>1</v>
       </c>
       <c r="G243" s="8"/>
-    </row>
-    <row r="244" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J243" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7066,8 +7246,11 @@
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="8"/>
-    </row>
-    <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J244" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7085,8 +7268,11 @@
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="8"/>
-    </row>
-    <row r="246" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J245" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7104,8 +7290,11 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="8"/>
-    </row>
-    <row r="247" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J246" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7123,8 +7312,11 @@
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="8"/>
-    </row>
-    <row r="248" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J247" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7144,8 +7336,11 @@
         <v>1</v>
       </c>
       <c r="G248" s="8"/>
-    </row>
-    <row r="249" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J248" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7163,8 +7358,11 @@
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="8"/>
-    </row>
-    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J249" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7184,8 +7382,11 @@
         <v>1</v>
       </c>
       <c r="G250" s="8"/>
-    </row>
-    <row r="251" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J250" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7203,8 +7404,11 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="8"/>
-    </row>
-    <row r="252" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J251" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7222,8 +7426,11 @@
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="8"/>
-    </row>
-    <row r="253" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J252" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7241,8 +7448,11 @@
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="8"/>
-    </row>
-    <row r="254" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J253" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7260,8 +7470,11 @@
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="8"/>
-    </row>
-    <row r="255" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J254" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7281,8 +7494,11 @@
         <v>1</v>
       </c>
       <c r="G255" s="8"/>
-    </row>
-    <row r="256" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J255" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7300,8 +7516,11 @@
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="8"/>
-    </row>
-    <row r="257" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J256" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7319,8 +7538,11 @@
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="8"/>
-    </row>
-    <row r="258" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J257" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7340,8 +7562,11 @@
         <v>1</v>
       </c>
       <c r="G258" s="8"/>
-    </row>
-    <row r="259" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J258" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7361,8 +7586,11 @@
         <v>1</v>
       </c>
       <c r="G259" s="8"/>
-    </row>
-    <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J259" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7380,8 +7608,11 @@
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="8"/>
-    </row>
-    <row r="261" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J260" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7399,8 +7630,11 @@
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="8"/>
-    </row>
-    <row r="262" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J261" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7420,8 +7654,11 @@
         <v>1</v>
       </c>
       <c r="G262" s="8"/>
-    </row>
-    <row r="263" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J262" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7439,8 +7676,11 @@
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="8"/>
-    </row>
-    <row r="264" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J263" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7458,8 +7698,11 @@
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="8"/>
-    </row>
-    <row r="265" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J264" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7477,8 +7720,11 @@
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="8"/>
-    </row>
-    <row r="266" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J265" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7498,8 +7744,11 @@
         <v>1</v>
       </c>
       <c r="G266" s="8"/>
-    </row>
-    <row r="267" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J266" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7517,8 +7766,11 @@
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="8"/>
-    </row>
-    <row r="268" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J267" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7536,8 +7788,11 @@
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="8"/>
-    </row>
-    <row r="269" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J268" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7557,8 +7812,11 @@
         <v>1</v>
       </c>
       <c r="G269" s="8"/>
-    </row>
-    <row r="270" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J269" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7578,8 +7836,11 @@
         <v>1</v>
       </c>
       <c r="G270" s="8"/>
-    </row>
-    <row r="271" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J270" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7597,8 +7858,11 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="8"/>
-    </row>
-    <row r="272" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J271" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7616,8 +7880,11 @@
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="8"/>
-    </row>
-    <row r="273" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J272" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7635,8 +7902,11 @@
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="8"/>
-    </row>
-    <row r="274" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J273" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7654,8 +7924,11 @@
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="8"/>
-    </row>
-    <row r="275" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J274" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7675,8 +7948,11 @@
         <v>1</v>
       </c>
       <c r="G275" s="8"/>
-    </row>
-    <row r="276" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J275" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7694,8 +7970,11 @@
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="8"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J276" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7713,8 +7992,11 @@
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="8"/>
-    </row>
-    <row r="278" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J277" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7732,8 +8014,11 @@
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="8"/>
-    </row>
-    <row r="279" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J278" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7751,8 +8036,11 @@
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="8"/>
-    </row>
-    <row r="280" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J279" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7770,8 +8058,11 @@
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="8"/>
-    </row>
-    <row r="281" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J280" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7791,8 +8082,11 @@
         <v>1</v>
       </c>
       <c r="G281" s="8"/>
-    </row>
-    <row r="282" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J281" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7810,8 +8104,11 @@
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="8"/>
-    </row>
-    <row r="283" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J282" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7829,8 +8126,11 @@
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="8"/>
-    </row>
-    <row r="284" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J283" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7850,8 +8150,11 @@
         <v>1</v>
       </c>
       <c r="G284" s="8"/>
-    </row>
-    <row r="285" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J284" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7871,8 +8174,11 @@
         <v>1</v>
       </c>
       <c r="G285" s="8"/>
-    </row>
-    <row r="286" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J285" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7890,8 +8196,11 @@
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="8"/>
-    </row>
-    <row r="287" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J286" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7909,8 +8218,11 @@
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="8"/>
-    </row>
-    <row r="288" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J287" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7930,8 +8242,11 @@
         <v>1</v>
       </c>
       <c r="G288" s="8"/>
-    </row>
-    <row r="289" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J288" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7951,8 +8266,11 @@
         <v>1</v>
       </c>
       <c r="G289" s="8"/>
-    </row>
-    <row r="290" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J289" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7970,8 +8288,11 @@
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="8"/>
-    </row>
-    <row r="291" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J290" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7989,8 +8310,11 @@
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="8"/>
-    </row>
-    <row r="292" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J291" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8008,8 +8332,11 @@
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="8"/>
-    </row>
-    <row r="293" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J292" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8027,8 +8354,11 @@
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="8"/>
-    </row>
-    <row r="294" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J293" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8046,8 +8376,11 @@
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="8"/>
-    </row>
-    <row r="295" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J294" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8065,8 +8398,11 @@
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="8"/>
-    </row>
-    <row r="296" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J295" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8084,8 +8420,11 @@
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="8"/>
-    </row>
-    <row r="297" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J296" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8105,8 +8444,11 @@
         <v>1</v>
       </c>
       <c r="G297" s="8"/>
-    </row>
-    <row r="298" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J297" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8124,8 +8466,11 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="8"/>
-    </row>
-    <row r="299" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J298" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8143,8 +8488,11 @@
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="8"/>
-    </row>
-    <row r="300" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J299" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8162,8 +8510,11 @@
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="8"/>
-    </row>
-    <row r="301" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J300" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8183,8 +8534,11 @@
         <v>1</v>
       </c>
       <c r="G301" s="8"/>
-    </row>
-    <row r="302" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J301" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -8202,8 +8556,11 @@
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="8"/>
-    </row>
-    <row r="303" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J302" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -8221,8 +8578,11 @@
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="8"/>
-    </row>
-    <row r="304" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="J303" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -8242,8 +8602,11 @@
         <v>1</v>
       </c>
       <c r="G304" s="8"/>
-    </row>
-    <row r="305" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="J304" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -8261,50 +8624,53 @@
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="8"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J305" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">

--- a/Lehrplan21_Data/Lehrplan21asExcel.xlsx
+++ b/Lehrplan21_Data/Lehrplan21asExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kl/Desktop/bachelor/GitDez/BachelorThesisFeatureModel/Lehrplan21_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2B0F95-E72A-844D-A1AA-AA74A4FCC4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375A7F8-94BF-7440-83AF-69B6C1BB60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30200" yWindow="1060" windowWidth="45720" windowHeight="36820" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrplan 21 ohne MA.2" sheetId="1" r:id="rId1"/>
@@ -774,9 +774,6 @@
     <t>können Anschauungsmaterialien beim Erforschen arithmetischer Muster nutzen (z.B. 20er-Feld und Plättchen).</t>
   </si>
   <si>
-    <t>önnen Punktefeld, 100er-Tafel und Zahlenstrahl beim Erforschen arithmetischer Muster nutzen (z.B. die Positionen der 9er-Reihe auf der 100er-Tafel).</t>
-  </si>
-  <si>
     <t>können Stellenwerttafel beim Erforschen arithmetischer Strukturen nutzen (z.B.Plättchen in die Stellenwerttafel legen und verschieben).</t>
   </si>
   <si>
@@ -1177,6 +1174,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>können Punktefeld, 100er-Tafel und Zahlenstrahl beim Erforschen arithmetischer Muster nutzen (z.B. die Positionen der 9er-Reihe auf der 100er-Tafel).</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,7 +1273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1760,14 +1759,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="155.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
@@ -1780,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1798,19 +1797,19 @@
         <v>43</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2143,11 +2142,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2368,7 +2367,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3201,13 +3200,13 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="2">
@@ -3300,7 +3299,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -3818,7 +3817,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -4889,8 +4888,8 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>244</v>
+      <c r="B140" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>106</v>
@@ -4914,7 +4913,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>106</v>
@@ -4936,7 +4935,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>106</v>
@@ -5094,7 +5093,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>107</v>
@@ -5116,7 +5115,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>107</v>
@@ -5138,7 +5137,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>107</v>
@@ -5160,7 +5159,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>107</v>
@@ -5182,7 +5181,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>107</v>
@@ -5206,7 +5205,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>107</v>
@@ -5228,7 +5227,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>107</v>
@@ -5274,7 +5273,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>107</v>
@@ -5296,7 +5295,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>108</v>
@@ -5318,7 +5317,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>108</v>
@@ -5362,7 +5361,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>108</v>
@@ -5386,7 +5385,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>108</v>
@@ -5410,7 +5409,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>108</v>
@@ -5432,7 +5431,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>108</v>
@@ -5454,7 +5453,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>108</v>
@@ -5476,7 +5475,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>108</v>
@@ -5498,7 +5497,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>108</v>
@@ -5522,7 +5521,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>108</v>
@@ -5546,7 +5545,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>108</v>
@@ -5570,7 +5569,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>108</v>
@@ -5592,7 +5591,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>108</v>
@@ -5614,7 +5613,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>108</v>
@@ -5636,7 +5635,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>108</v>
@@ -5658,7 +5657,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>108</v>
@@ -5680,7 +5679,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>108</v>
@@ -5702,7 +5701,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>108</v>
@@ -5724,7 +5723,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>108</v>
@@ -5748,7 +5747,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>108</v>
@@ -5772,7 +5771,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>108</v>
@@ -5794,7 +5793,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>108</v>
@@ -5816,7 +5815,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>118</v>
@@ -5838,7 +5837,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>118</v>
@@ -5860,7 +5859,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>118</v>
@@ -5882,7 +5881,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>118</v>
@@ -5930,7 +5929,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>118</v>
@@ -5997,7 +5996,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>118</v>
@@ -6019,7 +6018,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>118</v>
@@ -6041,7 +6040,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>118</v>
@@ -6129,7 +6128,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>118</v>
@@ -6153,7 +6152,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>118</v>
@@ -6177,7 +6176,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>118</v>
@@ -6245,7 +6244,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>118</v>
@@ -6267,7 +6266,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>118</v>
@@ -6289,7 +6288,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>118</v>
@@ -6311,7 +6310,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>118</v>
@@ -6333,7 +6332,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>118</v>
@@ -6357,7 +6356,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>118</v>
@@ -6445,7 +6444,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>131</v>
@@ -6467,7 +6466,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>131</v>
@@ -6557,7 +6556,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>131</v>
@@ -6581,7 +6580,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>131</v>
@@ -6625,7 +6624,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>131</v>
@@ -6647,7 +6646,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>131</v>
@@ -6691,7 +6690,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>131</v>
@@ -6713,7 +6712,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>131</v>
@@ -6734,7 +6733,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>131</v>
@@ -6758,7 +6757,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>131</v>
@@ -6780,7 +6779,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>131</v>
@@ -6824,7 +6823,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>131</v>
@@ -6848,7 +6847,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>131</v>
@@ -6891,7 +6890,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>133</v>
@@ -6913,7 +6912,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>133</v>
@@ -6937,7 +6936,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>133</v>
@@ -6959,7 +6958,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>133</v>
@@ -6981,7 +6980,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>133</v>
@@ -7005,7 +7004,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>133</v>
@@ -7029,7 +7028,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>133</v>
@@ -7073,7 +7072,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>133</v>
@@ -7095,7 +7094,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>133</v>
@@ -7117,7 +7116,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>133</v>
@@ -7139,7 +7138,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>133</v>
@@ -7161,7 +7160,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>133</v>
@@ -7185,7 +7184,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>133</v>
@@ -7255,7 +7254,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>133</v>
@@ -7299,7 +7298,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>141</v>
@@ -7321,7 +7320,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>141</v>
@@ -7345,7 +7344,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>141</v>
@@ -7367,7 +7366,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>141</v>
@@ -7391,7 +7390,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>141</v>
@@ -7413,7 +7412,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>141</v>
@@ -7435,7 +7434,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>141</v>
@@ -7479,7 +7478,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>141</v>
@@ -7503,7 +7502,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>141</v>
@@ -7525,7 +7524,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>141</v>
@@ -7547,7 +7546,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>142</v>
@@ -7571,7 +7570,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>142</v>
@@ -7617,7 +7616,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>142</v>
@@ -7639,7 +7638,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>142</v>
@@ -7663,7 +7662,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>142</v>
@@ -7685,7 +7684,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>142</v>
@@ -7707,7 +7706,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>142</v>
@@ -7729,7 +7728,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>142</v>
@@ -7753,7 +7752,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>142</v>
@@ -7797,7 +7796,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>143</v>
@@ -7821,7 +7820,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>143</v>
@@ -7867,7 +7866,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>143</v>
@@ -7889,7 +7888,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>143</v>
@@ -7911,7 +7910,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>143</v>
@@ -7933,7 +7932,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>143</v>
@@ -7957,7 +7956,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>143</v>
@@ -8001,7 +8000,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>143</v>
@@ -8023,7 +8022,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>143</v>
@@ -8045,7 +8044,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>143</v>
@@ -8067,7 +8066,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>143</v>
@@ -8091,7 +8090,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>143</v>
@@ -8113,7 +8112,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>150</v>
@@ -8135,7 +8134,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>150</v>
@@ -8159,7 +8158,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>150</v>
@@ -8183,7 +8182,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>150</v>
@@ -8205,7 +8204,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>150</v>
@@ -8227,7 +8226,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>150</v>
@@ -8251,7 +8250,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>150</v>
@@ -8275,7 +8274,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>150</v>
@@ -8297,7 +8296,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>150</v>
@@ -8319,7 +8318,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>150</v>
@@ -8341,7 +8340,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>150</v>
@@ -8363,7 +8362,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>150</v>
@@ -8385,7 +8384,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>150</v>
@@ -8407,7 +8406,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>150</v>
@@ -8429,7 +8428,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>150</v>
@@ -8497,7 +8496,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>151</v>
@@ -8519,7 +8518,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>151</v>
@@ -8543,7 +8542,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>151</v>
@@ -8565,7 +8564,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>151</v>
@@ -8587,7 +8586,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>151</v>
@@ -8611,7 +8610,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>151</v>

--- a/Lehrplan21_Data/Lehrplan21asExcel.xlsx
+++ b/Lehrplan21_Data/Lehrplan21asExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kl/Desktop/bachelor/GitDez/BachelorThesisFeatureModel/Lehrplan21_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375A7F8-94BF-7440-83AF-69B6C1BB60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6D1F2B-285C-E747-BAA0-E6253D4A2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
+    <workbookView xWindow="6380" yWindow="3260" windowWidth="51080" windowHeight="37320" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrplan 21 ohne MA.2" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>verstehen und verwenden die Begriffe plus, minus, gleich und die Symbole +, - , =.</t>
   </si>
   <si>
-    <t>verstehen und verwenden den Begriff durch und das Symbol :.</t>
-  </si>
-  <si>
     <t>können natürliche Zahlen bis 1'000 lesen und schreiben</t>
   </si>
   <si>
@@ -1177,6 +1174,9 @@
   </si>
   <si>
     <t>können Punktefeld, 100er-Tafel und Zahlenstrahl beim Erforschen arithmetischer Muster nutzen (z.B. die Positionen der 9er-Reihe auf der 100er-Tafel).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verstehen und verwenden den Begriff durch und das Symbo l : . </t>
   </si>
 </sst>
 </file>
@@ -1273,9 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1759,8 +1757,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1794,22 +1792,22 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1817,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1845,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1861,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1901,8 +1899,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+      <c r="B6" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1915,7 +1913,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="6">
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
@@ -1924,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1943,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1956,9 +1954,6 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -2006,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2054,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2081,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2100,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2125,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -2146,8 +2141,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>164</v>
+      <c r="B17" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -2169,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -2191,7 +2186,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -2212,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -2234,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -2258,7 +2253,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -2281,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -2303,7 +2298,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -2324,7 +2319,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -2346,13 +2341,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2367,14 +2362,14 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>157</v>
+      <c r="B27" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2388,13 +2383,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2410,13 +2405,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2432,10 +2427,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2456,10 +2451,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -2480,13 +2475,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2">
         <v>1.5</v>
@@ -2502,13 +2497,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2">
         <v>1.5</v>
@@ -2524,10 +2519,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -2546,10 +2541,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
@@ -2568,10 +2563,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
@@ -2590,10 +2585,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
@@ -2612,10 +2607,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
@@ -2636,10 +2631,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>16</v>
@@ -2660,10 +2655,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>17</v>
@@ -2684,13 +2679,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2708,10 +2703,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
@@ -2730,10 +2725,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2752,10 +2747,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>21</v>
@@ -2774,10 +2769,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>25</v>
@@ -2798,13 +2793,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2820,13 +2815,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2844,13 +2839,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -2868,13 +2863,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -2892,13 +2887,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -2916,10 +2911,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2938,10 +2933,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>10</v>
@@ -2960,13 +2955,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="2">
         <v>1.5</v>
@@ -2981,13 +2976,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -3003,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
@@ -3025,13 +3020,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
@@ -3046,10 +3041,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -3067,10 +3062,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
@@ -3088,13 +3083,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
@@ -3110,10 +3105,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>13</v>
@@ -3133,10 +3128,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>14</v>
@@ -3157,13 +3152,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
@@ -3180,10 +3175,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>15</v>
@@ -3201,10 +3196,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -3223,10 +3218,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>17</v>
@@ -3244,13 +3239,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E66" s="2">
         <v>2.5</v>
@@ -3265,10 +3260,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
@@ -3286,10 +3281,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>19</v>
@@ -3299,7 +3294,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -3310,10 +3305,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>21</v>
@@ -3331,10 +3326,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>22</v>
@@ -3352,10 +3347,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>23</v>
@@ -3374,10 +3369,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>25</v>
@@ -3395,10 +3390,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>26</v>
@@ -3416,13 +3411,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -3438,13 +3433,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -3460,10 +3455,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -3484,10 +3479,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>10</v>
@@ -3508,13 +3503,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" s="2">
         <v>1.5</v>
@@ -3530,10 +3525,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -3552,10 +3547,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>12</v>
@@ -3574,10 +3569,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>13</v>
@@ -3596,10 +3591,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>14</v>
@@ -3618,13 +3613,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E83" s="2">
         <v>2</v>
@@ -3639,10 +3634,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>15</v>
@@ -3663,10 +3658,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>16</v>
@@ -3687,10 +3682,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>18</v>
@@ -3709,10 +3704,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>19</v>
@@ -3730,10 +3725,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>20</v>
@@ -3752,10 +3747,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>21</v>
@@ -3774,10 +3769,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>22</v>
@@ -3796,10 +3791,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>23</v>
@@ -3818,10 +3813,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>24</v>
@@ -3840,10 +3835,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>25</v>
@@ -3861,10 +3856,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>26</v>
@@ -3883,13 +3878,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="2">
         <v>3</v>
@@ -3905,13 +3900,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E96" s="2">
         <v>3</v>
@@ -3927,13 +3922,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2">
         <v>3</v>
@@ -3949,10 +3944,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>27</v>
@@ -3973,10 +3968,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>29</v>
@@ -3995,13 +3990,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2">
         <v>3</v>
@@ -4017,13 +4012,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2">
         <v>3</v>
@@ -4038,13 +4033,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2">
         <v>3</v>
@@ -4060,13 +4055,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E103" s="2">
         <v>3</v>
@@ -4081,13 +4076,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2">
         <v>3</v>
@@ -4103,13 +4098,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" s="2">
         <v>3</v>
@@ -4125,13 +4120,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E106" s="2">
         <v>1</v>
@@ -4147,13 +4142,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -4169,13 +4164,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -4191,10 +4186,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>9</v>
@@ -4215,13 +4210,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E110">
         <v>1.5</v>
@@ -4237,13 +4232,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E111" s="2">
         <v>1.5</v>
@@ -4259,10 +4254,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>11</v>
@@ -4281,10 +4276,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>13</v>
@@ -4303,10 +4298,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>15</v>
@@ -4325,10 +4320,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>18</v>
@@ -4349,10 +4344,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>19</v>
@@ -4373,10 +4368,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>21</v>
@@ -4395,10 +4390,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>22</v>
@@ -4417,10 +4412,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>23</v>
@@ -4439,10 +4434,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>25</v>
@@ -4461,10 +4456,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>26</v>
@@ -4483,10 +4478,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>27</v>
@@ -4507,10 +4502,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -4529,13 +4524,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -4551,13 +4546,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -4573,10 +4568,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>9</v>
@@ -4597,10 +4592,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>10</v>
@@ -4621,13 +4616,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E128" s="2">
         <v>1.5</v>
@@ -4643,10 +4638,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -4665,10 +4660,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>13</v>
@@ -4687,10 +4682,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>14</v>
@@ -4709,10 +4704,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>15</v>
@@ -4733,10 +4728,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>18</v>
@@ -4755,10 +4750,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>19</v>
@@ -4777,10 +4772,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>21</v>
@@ -4799,10 +4794,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>25</v>
@@ -4823,10 +4818,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>27</v>
@@ -4845,10 +4840,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>28</v>
@@ -4867,13 +4862,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -4888,14 +4883,14 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>378</v>
+      <c r="B140" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -4913,10 +4908,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>9</v>
@@ -4935,13 +4930,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E142" s="2">
         <v>2</v>
@@ -4957,10 +4952,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>11</v>
@@ -4979,10 +4974,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>13</v>
@@ -5001,10 +4996,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>15</v>
@@ -5025,10 +5020,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>16</v>
@@ -5049,10 +5044,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>18</v>
@@ -5071,13 +5066,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -5093,13 +5088,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -5115,10 +5110,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>9</v>
@@ -5137,13 +5132,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E151" s="2">
         <v>1.5</v>
@@ -5159,10 +5154,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
@@ -5181,10 +5176,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>13</v>
@@ -5205,10 +5200,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>15</v>
@@ -5227,10 +5222,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>18</v>
@@ -5251,10 +5246,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>21</v>
@@ -5273,10 +5268,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>22</v>
@@ -5295,13 +5290,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
@@ -5317,13 +5312,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -5339,13 +5334,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -5361,10 +5356,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>9</v>
@@ -5385,10 +5380,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
@@ -5409,13 +5404,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E163" s="2">
         <v>1.5</v>
@@ -5431,13 +5426,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E164" s="2">
         <v>2</v>
@@ -5453,10 +5448,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>11</v>
@@ -5475,10 +5470,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>13</v>
@@ -5497,10 +5492,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>15</v>
@@ -5521,10 +5516,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>16</v>
@@ -5545,10 +5540,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>17</v>
@@ -5569,10 +5564,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>18</v>
@@ -5591,10 +5586,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>19</v>
@@ -5613,10 +5608,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>21</v>
@@ -5635,10 +5630,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>22</v>
@@ -5657,10 +5652,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>23</v>
@@ -5679,10 +5674,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>24</v>
@@ -5701,13 +5696,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E176" s="2">
         <v>3</v>
@@ -5723,10 +5718,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>25</v>
@@ -5747,10 +5742,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>26</v>
@@ -5771,10 +5766,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>27</v>
@@ -5793,10 +5788,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>28</v>
@@ -5815,13 +5810,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E181" s="2">
         <v>1</v>
@@ -5837,13 +5832,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -5859,13 +5854,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
@@ -5881,10 +5876,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>9</v>
@@ -5905,10 +5900,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>10</v>
@@ -5929,13 +5924,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -5952,13 +5947,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E187" s="2">
         <v>1.5</v>
@@ -5974,10 +5969,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>11</v>
@@ -5996,10 +5991,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>12</v>
@@ -6018,13 +6013,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E190" s="2">
         <v>2</v>
@@ -6040,10 +6035,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>13</v>
@@ -6062,10 +6057,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>14</v>
@@ -6084,13 +6079,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E193" s="2">
         <v>2</v>
@@ -6106,10 +6101,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>15</v>
@@ -6128,10 +6123,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>18</v>
@@ -6152,10 +6147,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>19</v>
@@ -6176,10 +6171,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>20</v>
@@ -6200,10 +6195,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>21</v>
@@ -6222,10 +6217,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>22</v>
@@ -6244,10 +6239,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>25</v>
@@ -6266,10 +6261,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>26</v>
@@ -6288,10 +6283,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>27</v>
@@ -6310,10 +6305,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>28</v>
@@ -6332,10 +6327,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>29</v>
@@ -6356,13 +6351,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E205" s="2">
         <v>3</v>
@@ -6378,13 +6373,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -6400,13 +6395,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E207" s="2">
         <v>3</v>
@@ -6422,13 +6417,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E208" s="2">
         <v>3</v>
@@ -6444,13 +6439,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E209" s="2">
         <v>1</v>
@@ -6466,13 +6461,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C210" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E210" s="2">
         <v>1</v>
@@ -6488,13 +6483,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E211" s="2">
         <v>1</v>
@@ -6510,13 +6505,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E212" s="2">
         <v>1</v>
@@ -6532,10 +6527,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -6556,10 +6551,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>10</v>
@@ -6580,13 +6575,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E215" s="2">
         <v>1.5</v>
@@ -6602,13 +6597,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E216" s="2">
         <v>1.5</v>
@@ -6624,10 +6619,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>11</v>
@@ -6646,10 +6641,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>12</v>
@@ -6668,13 +6663,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E219" s="2">
         <v>2</v>
@@ -6690,10 +6685,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>13</v>
@@ -6712,10 +6707,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>15</v>
@@ -6733,10 +6728,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>18</v>
@@ -6757,10 +6752,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>21</v>
@@ -6779,10 +6774,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>22</v>
@@ -6801,10 +6796,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>23</v>
@@ -6823,10 +6818,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>25</v>
@@ -6847,10 +6842,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>27</v>
@@ -6869,10 +6864,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>28</v>
@@ -6890,13 +6885,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E229" s="2">
         <v>1</v>
@@ -6912,13 +6907,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
@@ -6936,10 +6931,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>9</v>
@@ -6958,13 +6953,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E232" s="2">
         <v>2</v>
@@ -6980,10 +6975,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>11</v>
@@ -7004,10 +6999,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>12</v>
@@ -7028,10 +7023,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>13</v>
@@ -7050,10 +7045,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>15</v>
@@ -7072,10 +7067,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>16</v>
@@ -7094,10 +7089,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>17</v>
@@ -7116,10 +7111,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>18</v>
@@ -7138,10 +7133,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>19</v>
@@ -7160,10 +7155,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>21</v>
@@ -7184,10 +7179,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>22</v>
@@ -7208,10 +7203,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>23</v>
@@ -7232,10 +7227,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>25</v>
@@ -7254,10 +7249,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>27</v>
@@ -7276,13 +7271,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E246" s="2">
         <v>1</v>
@@ -7298,13 +7293,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E247" s="2">
         <v>1</v>
@@ -7320,10 +7315,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>9</v>
@@ -7344,13 +7339,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E249" s="2">
         <v>1.5</v>
@@ -7366,10 +7361,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>11</v>
@@ -7390,10 +7385,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>13</v>
@@ -7412,10 +7407,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>14</v>
@@ -7434,10 +7429,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>15</v>
@@ -7456,10 +7451,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>18</v>
@@ -7478,10 +7473,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>21</v>
@@ -7502,10 +7497,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>25</v>
@@ -7524,10 +7519,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>26</v>
@@ -7546,13 +7541,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E258" s="2">
         <v>1</v>
@@ -7570,13 +7565,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E259" s="2">
         <v>1</v>
@@ -7594,13 +7589,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E260" s="2">
         <v>2</v>
@@ -7616,13 +7611,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E261" s="2">
         <v>2</v>
@@ -7638,10 +7633,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7662,13 +7657,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E263" s="2">
         <v>2.5</v>
@@ -7684,10 +7679,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>11</v>
@@ -7706,10 +7701,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>12</v>
@@ -7728,10 +7723,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>13</v>
@@ -7752,10 +7747,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>15</v>
@@ -7774,13 +7769,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -7796,13 +7791,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E269" s="2">
         <v>1</v>
@@ -7820,13 +7815,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -7844,10 +7839,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>9</v>
@@ -7866,13 +7861,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E272" s="2">
         <v>2</v>
@@ -7888,13 +7883,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E273" s="2">
         <v>2</v>
@@ -7910,10 +7905,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>11</v>
@@ -7932,10 +7927,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>13</v>
@@ -7956,10 +7951,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>15</v>
@@ -7978,10 +7973,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>16</v>
@@ -8000,10 +7995,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>18</v>
@@ -8022,10 +8017,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>21</v>
@@ -8044,10 +8039,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>22</v>
@@ -8066,10 +8061,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>25</v>
@@ -8090,10 +8085,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>26</v>
@@ -8112,13 +8107,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -8134,13 +8129,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -8158,13 +8153,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -8182,10 +8177,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -8204,13 +8199,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E287" s="2">
         <v>2</v>
@@ -8226,10 +8221,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>11</v>
@@ -8250,10 +8245,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>12</v>
@@ -8274,10 +8269,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>13</v>
@@ -8296,10 +8291,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>14</v>
@@ -8318,13 +8313,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E292" s="2">
         <v>3</v>
@@ -8340,10 +8335,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>15</v>
@@ -8362,10 +8357,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>16</v>
@@ -8384,10 +8379,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>17</v>
@@ -8406,10 +8401,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>18</v>
@@ -8428,10 +8423,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>19</v>
@@ -8452,10 +8447,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>21</v>
@@ -8474,13 +8469,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E299" s="2">
         <v>1</v>
@@ -8496,13 +8491,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -8518,10 +8513,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>9</v>
@@ -8542,13 +8537,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E302" s="2">
         <v>1.5</v>
@@ -8564,10 +8559,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>11</v>
@@ -8586,10 +8581,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>13</v>
@@ -8610,10 +8605,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>15</v>

--- a/Lehrplan21_Data/Lehrplan21asExcel.xlsx
+++ b/Lehrplan21_Data/Lehrplan21asExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kl/Desktop/bachelor/GitDez/BachelorThesisFeatureModel/Lehrplan21_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6D1F2B-285C-E747-BAA0-E6253D4A2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5B90F-4F01-8147-AF39-5D2688EAE05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3260" windowWidth="51080" windowHeight="37320" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
+    <workbookView xWindow="10940" yWindow="500" windowWidth="51080" windowHeight="37320" xr2:uid="{9EF3264B-4CB2-F749-8DBA-EF109676CAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrplan 21 ohne MA.2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="Grundanspruch">'Lehrplan 21 ohne MA.2'!$F:$F</definedName>
     <definedName name="NR">'Lehrplan 21 ohne MA.2'!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,7 +1273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,8 +1417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BDD83ED-47E2-3647-9C2B-CE7533D4A801}" name="Table1" displayName="Table1" ref="A1:K305" totalsRowShown="0">
-  <autoFilter ref="A1:K305" xr:uid="{3BDD83ED-47E2-3647-9C2B-CE7533D4A801}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BDD83ED-47E2-3647-9C2B-CE7533D4A801}" name="Table1" displayName="Table1" ref="A1:K306" totalsRowShown="0">
+  <autoFilter ref="A1:K306" xr:uid="{3BDD83ED-47E2-3647-9C2B-CE7533D4A801}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6C3F957F-3477-004B-B030-F1453CDEA510}" name="Nummer"/>
     <tableColumn id="2" xr3:uid="{3A0927D6-1A4A-3443-961E-EF1A3794008B}" name="Inhalt" dataDxfId="7"/>
@@ -1755,10 +1754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FF1BE2-CF71-0F42-9428-7EA2A6944CA2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K322"/>
+  <dimension ref="A1:K323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,12 +1893,15 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>378</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1913,7 +1915,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8"/>
-      <c r="I6">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1935,6 +1937,9 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1954,7 +1959,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8"/>
-      <c r="I8">
+      <c r="J8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1976,6 +1981,9 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1995,6 +2003,9 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8"/>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2019,9 +2030,6 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2043,6 +2051,9 @@
         <v>1</v>
       </c>
       <c r="G12" s="8"/>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2067,9 +2078,6 @@
       <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2089,6 +2097,9 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8"/>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2111,9 +2122,6 @@
       <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2155,7 +2163,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="8"/>
-      <c r="I17">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2270,6 +2278,9 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -3917,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3939,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4007,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4028,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4093,43 +4104,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
+        <f>COUNT(A2:A104)</f>
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="B105:K105" si="0">COUNT(E2:E104)</f>
+        <v>103</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="2">
-        <v>3</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="8"/>
-      <c r="J105" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E106" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="8"/>
@@ -4137,18 +4160,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -4159,18 +4182,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -4181,66 +4204,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="8"/>
       <c r="J109" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110">
-        <v>1.5</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
       <c r="G110" s="8"/>
       <c r="J110" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="2">
+        <v>48</v>
+      </c>
+      <c r="E111">
         <v>1.5</v>
       </c>
       <c r="F111" s="2"/>
@@ -4249,21 +4272,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E112" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="8"/>
@@ -4273,16 +4296,16 @@
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E113" s="2">
         <v>2</v>
@@ -4295,16 +4318,16 @@
     </row>
     <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2">
         <v>2</v>
@@ -4317,40 +4340,38 @@
     </row>
     <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
       </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="8"/>
       <c r="J115" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -4365,21 +4386,23 @@
     </row>
     <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E117" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F117" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
       <c r="G117" s="8"/>
       <c r="J117" s="9">
         <v>1</v>
@@ -4387,16 +4410,16 @@
     </row>
     <row r="118" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E118" s="2">
         <v>2.5</v>
@@ -4409,16 +4432,16 @@
     </row>
     <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2">
         <v>2.5</v>
@@ -4429,21 +4452,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E120" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="8"/>
@@ -4453,16 +4476,16 @@
     </row>
     <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" s="2">
         <v>3</v>
@@ -4473,25 +4496,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122" s="2">
         <v>3</v>
       </c>
-      <c r="F122" s="2">
-        <v>1</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="8"/>
       <c r="J122" s="9">
         <v>1</v>
@@ -4499,41 +4520,43 @@
     </row>
     <row r="123" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123" s="2">
         <v>3</v>
       </c>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
       <c r="G123" s="8"/>
       <c r="J123" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E124" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="8"/>
@@ -4541,18 +4564,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -4565,40 +4588,38 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
       </c>
-      <c r="F126" s="2">
-        <v>1</v>
-      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="8"/>
       <c r="J126" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>235</v>
+        <v>125</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -4613,21 +4634,23 @@
     </row>
     <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="J128" s="9">
         <v>1</v>
@@ -4635,19 +4658,19 @@
     </row>
     <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E129" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8"/>
@@ -4657,16 +4680,16 @@
     </row>
     <row r="130" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E130" s="2">
         <v>2</v>
@@ -4679,16 +4702,16 @@
     </row>
     <row r="131" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2">
         <v>2</v>
@@ -4701,62 +4724,62 @@
     </row>
     <row r="132" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E132" s="2">
         <v>2</v>
       </c>
-      <c r="F132" s="2">
-        <v>1</v>
-      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="8"/>
       <c r="J132" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E133" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="J133" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E134" s="2">
         <v>2.5</v>
@@ -4767,21 +4790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>103</v>
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E135" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8"/>
@@ -4789,25 +4812,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E136" s="2">
         <v>3</v>
       </c>
-      <c r="F136" s="2">
-        <v>1</v>
-      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="8"/>
       <c r="J136" s="9">
         <v>1</v>
@@ -4815,21 +4836,23 @@
     </row>
     <row r="137" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E137" s="2">
         <v>3</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="J137" s="9">
         <v>1</v>
@@ -4837,16 +4860,16 @@
     </row>
     <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E138" s="2">
         <v>3</v>
@@ -4859,19 +4882,19 @@
     </row>
     <row r="139" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="8"/>
@@ -4881,23 +4904,21 @@
     </row>
     <row r="140" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>377</v>
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
       </c>
-      <c r="F140" s="2">
-        <v>1</v>
-      </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="8"/>
       <c r="J140" s="9">
         <v>1</v>
@@ -4905,38 +4926,40 @@
     </row>
     <row r="141" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E141" s="2">
-        <v>2</v>
-      </c>
-      <c r="F141" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
       <c r="G141" s="8"/>
       <c r="J141" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E142" s="2">
         <v>2</v>
@@ -4947,21 +4970,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E143" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="8"/>
@@ -4971,16 +4994,16 @@
     </row>
     <row r="144" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144" s="2">
         <v>2.5</v>
@@ -4993,23 +5016,21 @@
     </row>
     <row r="145" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2">
-        <v>3</v>
-      </c>
-      <c r="F145" s="2">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="8"/>
       <c r="J145" s="9">
         <v>1</v>
@@ -5017,16 +5038,16 @@
     </row>
     <row r="146" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146" s="2">
         <v>3</v>
@@ -5041,41 +5062,43 @@
     </row>
     <row r="147" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E147" s="2">
         <v>3</v>
       </c>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
       <c r="G147" s="8"/>
       <c r="J147" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E148" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="8"/>
@@ -5083,18 +5106,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>245</v>
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -5107,16 +5130,16 @@
     </row>
     <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
@@ -5129,19 +5152,19 @@
     </row>
     <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E151" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="8"/>
@@ -5151,19 +5174,19 @@
     </row>
     <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E152" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="8"/>
@@ -5171,25 +5194,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153" s="2">
         <v>2</v>
       </c>
-      <c r="F153" s="2">
-        <v>1</v>
-      </c>
+      <c r="F153" s="2"/>
       <c r="G153" s="8"/>
       <c r="J153" s="9">
         <v>1</v>
@@ -5197,45 +5218,45 @@
     </row>
     <row r="154" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E154" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F154" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="J154" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E155" s="2">
-        <v>3</v>
-      </c>
-      <c r="F155" s="2">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F155" s="2"/>
       <c r="G155" s="8"/>
       <c r="J155" s="9">
         <v>1</v>
@@ -5243,21 +5264,23 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E156" s="2">
         <v>3</v>
       </c>
-      <c r="F156" s="2"/>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
       <c r="G156" s="8"/>
       <c r="J156" s="9">
         <v>1</v>
@@ -5265,16 +5288,16 @@
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157" s="2">
         <v>3</v>
@@ -5287,19 +5310,19 @@
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="8"/>
@@ -5309,16 +5332,16 @@
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -5331,16 +5354,16 @@
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -5353,23 +5376,21 @@
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
       </c>
-      <c r="F161" s="2">
-        <v>1</v>
-      </c>
+      <c r="F161" s="2"/>
       <c r="G161" s="8"/>
       <c r="J161" s="9">
         <v>1</v>
@@ -5377,16 +5398,16 @@
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -5401,21 +5422,23 @@
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E163" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F163" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <v>1</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="J163" s="9">
         <v>1</v>
@@ -5423,19 +5446,19 @@
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E164" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="8"/>
@@ -5445,16 +5468,16 @@
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E165" s="2">
         <v>2</v>
@@ -5467,16 +5490,16 @@
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166" s="2">
         <v>2</v>
@@ -5489,23 +5512,21 @@
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E167" s="2">
         <v>2</v>
       </c>
-      <c r="F167" s="2">
-        <v>1</v>
-      </c>
+      <c r="F167" s="2"/>
       <c r="G167" s="8"/>
       <c r="J167" s="9">
         <v>1</v>
@@ -5513,16 +5534,16 @@
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E168" s="2">
         <v>2</v>
@@ -5537,16 +5558,16 @@
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E169" s="2">
         <v>2</v>
@@ -5561,21 +5582,23 @@
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E170" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F170" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
       <c r="G170" s="8"/>
       <c r="J170" s="9">
         <v>1</v>
@@ -5583,16 +5606,16 @@
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171" s="2">
         <v>2.5</v>
@@ -5603,21 +5626,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E172" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="8"/>
@@ -5625,18 +5648,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E173" s="2">
         <v>3</v>
@@ -5647,18 +5670,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" s="2">
         <v>3</v>
@@ -5669,18 +5692,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E175" s="2">
         <v>3</v>
@@ -5693,16 +5716,16 @@
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E176" s="2">
         <v>3</v>
@@ -5715,23 +5738,21 @@
     </row>
     <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="E177" s="2">
         <v>3</v>
       </c>
-      <c r="F177" s="2">
-        <v>1</v>
-      </c>
+      <c r="F177" s="2"/>
       <c r="G177" s="8"/>
       <c r="J177" s="9">
         <v>1</v>
@@ -5739,16 +5760,16 @@
     </row>
     <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E178" s="2">
         <v>3</v>
@@ -5761,40 +5782,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E179" s="2">
         <v>3</v>
       </c>
-      <c r="F179" s="2"/>
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
       <c r="G179" s="8"/>
       <c r="J179" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E180" s="2">
         <v>3</v>
@@ -5807,19 +5830,19 @@
     </row>
     <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="8"/>
@@ -5829,16 +5852,16 @@
     </row>
     <row r="182" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -5849,44 +5872,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1</v>
+      </c>
+      <c r="F183" s="2"/>
       <c r="G183" s="8"/>
       <c r="J183" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E184" s="2"/>
       <c r="F184" s="2">
         <v>1</v>
       </c>
@@ -5897,16 +5918,16 @@
     </row>
     <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -5921,16 +5942,16 @@
     </row>
     <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -5938,47 +5959,49 @@
       <c r="F186" s="2">
         <v>1</v>
       </c>
-      <c r="G186" s="8">
+      <c r="G186" s="8"/>
+      <c r="J186" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E187" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="8"/>
-      <c r="J187" s="9">
+        <v>1</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E188" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="8"/>
@@ -5988,16 +6011,16 @@
     </row>
     <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E189" s="2">
         <v>2</v>
@@ -6010,16 +6033,16 @@
     </row>
     <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E190" s="2">
         <v>2</v>
@@ -6032,16 +6055,16 @@
     </row>
     <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E191" s="2">
         <v>2</v>
@@ -6054,16 +6077,16 @@
     </row>
     <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E192" s="2">
         <v>2</v>
@@ -6076,16 +6099,16 @@
     </row>
     <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E193" s="2">
         <v>2</v>
@@ -6098,16 +6121,16 @@
     </row>
     <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E194" s="2">
         <v>2</v>
@@ -6120,23 +6143,21 @@
     </row>
     <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E195" s="2">
         <v>2</v>
       </c>
-      <c r="F195" s="2">
-        <v>1</v>
-      </c>
+      <c r="F195" s="2"/>
       <c r="G195" s="8"/>
       <c r="J195" s="9">
         <v>1</v>
@@ -6144,16 +6165,16 @@
     </row>
     <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196" s="2">
         <v>2</v>
@@ -6168,16 +6189,16 @@
     </row>
     <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197" s="2">
         <v>2</v>
@@ -6192,21 +6213,23 @@
     </row>
     <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F198" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F198" s="2">
+        <v>1</v>
+      </c>
       <c r="G198" s="8"/>
       <c r="J198" s="9">
         <v>1</v>
@@ -6214,16 +6237,16 @@
     </row>
     <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E199" s="2">
         <v>2.5</v>
@@ -6236,19 +6259,19 @@
     </row>
     <row r="200" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E200" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="8"/>
@@ -6256,18 +6279,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" s="2">
         <v>3</v>
@@ -6278,18 +6301,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202" s="2">
         <v>3</v>
@@ -6302,16 +6325,16 @@
     </row>
     <row r="203" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E203" s="2">
         <v>3</v>
@@ -6324,23 +6347,21 @@
     </row>
     <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204" s="2">
         <v>3</v>
       </c>
-      <c r="F204" s="2">
-        <v>1</v>
-      </c>
+      <c r="F204" s="2"/>
       <c r="G204" s="8"/>
       <c r="J204" s="9">
         <v>1</v>
@@ -6348,21 +6369,23 @@
     </row>
     <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E205" s="2">
         <v>3</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="2">
+        <v>1</v>
+      </c>
       <c r="G205" s="8"/>
       <c r="J205" s="9">
         <v>1</v>
@@ -6370,16 +6393,16 @@
     </row>
     <row r="206" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -6392,16 +6415,16 @@
     </row>
     <row r="207" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E207" s="2">
         <v>3</v>
@@ -6414,16 +6437,16 @@
     </row>
     <row r="208" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E208" s="2">
         <v>3</v>
@@ -6436,19 +6459,19 @@
     </row>
     <row r="209" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E209" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="8"/>
@@ -6458,16 +6481,16 @@
     </row>
     <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="E210" s="2">
         <v>1</v>
@@ -6480,16 +6503,16 @@
     </row>
     <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E211" s="2">
         <v>1</v>
@@ -6502,62 +6525,60 @@
     </row>
     <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E212" s="2">
         <v>1</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="6">
+      <c r="J212" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E213" s="2">
         <v>1</v>
       </c>
-      <c r="F213" s="2">
-        <v>1</v>
-      </c>
+      <c r="F213" s="2"/>
       <c r="G213" s="8"/>
-      <c r="J213" s="9">
+      <c r="H213" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -6572,21 +6593,23 @@
     </row>
     <row r="215" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E215" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F215" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F215" s="2">
+        <v>1</v>
+      </c>
       <c r="G215" s="8"/>
       <c r="J215" s="9">
         <v>1</v>
@@ -6594,16 +6617,16 @@
     </row>
     <row r="216" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E216" s="2">
         <v>1.5</v>
@@ -6616,19 +6639,19 @@
     </row>
     <row r="217" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E217" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="8"/>
@@ -6638,16 +6661,16 @@
     </row>
     <row r="218" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E218" s="2">
         <v>2</v>
@@ -6660,16 +6683,16 @@
     </row>
     <row r="219" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E219" s="2">
         <v>2</v>
@@ -6682,16 +6705,16 @@
     </row>
     <row r="220" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E220" s="2">
         <v>2</v>
@@ -6704,66 +6727,66 @@
     </row>
     <row r="221" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E221" s="2">
         <v>2</v>
       </c>
       <c r="F221" s="2"/>
-      <c r="G221" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="G221" s="8"/>
+      <c r="J221" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E222" s="2">
         <v>2</v>
       </c>
-      <c r="F222" s="2">
-        <v>1</v>
-      </c>
-      <c r="G222" s="8"/>
-      <c r="J222" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="F222" s="2"/>
+      <c r="G222" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E223" s="2">
-        <v>3</v>
-      </c>
-      <c r="F223" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F223" s="2">
+        <v>1</v>
+      </c>
       <c r="G223" s="8"/>
       <c r="J223" s="9">
         <v>1</v>
@@ -6771,16 +6794,16 @@
     </row>
     <row r="224" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E224" s="2">
         <v>3</v>
@@ -6793,16 +6816,16 @@
     </row>
     <row r="225" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E225" s="2">
         <v>3</v>
@@ -6815,23 +6838,21 @@
     </row>
     <row r="226" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E226" s="2">
         <v>3</v>
       </c>
-      <c r="F226" s="2">
-        <v>1</v>
-      </c>
+      <c r="F226" s="2"/>
       <c r="G226" s="8"/>
       <c r="J226" s="9">
         <v>1</v>
@@ -6839,21 +6860,23 @@
     </row>
     <row r="227" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E227" s="2">
         <v>3</v>
       </c>
-      <c r="F227" s="2"/>
+      <c r="F227" s="2">
+        <v>1</v>
+      </c>
       <c r="G227" s="8"/>
       <c r="J227" s="9">
         <v>1</v>
@@ -6861,66 +6884,64 @@
     </row>
     <row r="228" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E228" s="2">
         <v>3</v>
       </c>
       <c r="F228" s="2"/>
-      <c r="G228" s="8">
+      <c r="G228" s="8"/>
+      <c r="J228" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F229" s="2"/>
-      <c r="G229" s="8"/>
-      <c r="J229" s="9">
+      <c r="G229" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
       </c>
-      <c r="F230" s="2">
-        <v>1</v>
-      </c>
+      <c r="F230" s="2"/>
       <c r="G230" s="8"/>
       <c r="J230" s="9">
         <v>1</v>
@@ -6928,21 +6949,23 @@
     </row>
     <row r="231" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E231" s="2">
-        <v>2</v>
-      </c>
-      <c r="F231" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F231" s="2">
+        <v>1</v>
+      </c>
       <c r="G231" s="8"/>
       <c r="J231" s="9">
         <v>1</v>
@@ -6950,16 +6973,16 @@
     </row>
     <row r="232" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E232" s="2">
         <v>2</v>
@@ -6972,23 +6995,21 @@
     </row>
     <row r="233" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E233" s="2">
         <v>2</v>
       </c>
-      <c r="F233" s="2">
-        <v>1</v>
-      </c>
+      <c r="F233" s="2"/>
       <c r="G233" s="8"/>
       <c r="J233" s="9">
         <v>1</v>
@@ -6996,16 +7017,16 @@
     </row>
     <row r="234" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E234" s="2">
         <v>2</v>
@@ -7020,21 +7041,23 @@
     </row>
     <row r="235" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E235" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F235" s="2">
+        <v>1</v>
+      </c>
       <c r="G235" s="8"/>
       <c r="J235" s="9">
         <v>1</v>
@@ -7042,19 +7065,19 @@
     </row>
     <row r="236" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E236" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="8"/>
@@ -7064,16 +7087,16 @@
     </row>
     <row r="237" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E237" s="2">
         <v>3</v>
@@ -7086,16 +7109,16 @@
     </row>
     <row r="238" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E238" s="2">
         <v>3</v>
@@ -7108,16 +7131,16 @@
     </row>
     <row r="239" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E239" s="2">
         <v>3</v>
@@ -7130,16 +7153,16 @@
     </row>
     <row r="240" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E240" s="2">
         <v>3</v>
@@ -7150,42 +7173,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E241" s="2">
         <v>3</v>
       </c>
-      <c r="F241" s="2">
-        <v>1</v>
-      </c>
+      <c r="F241" s="2"/>
       <c r="G241" s="8"/>
       <c r="J241" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E242" s="2">
         <v>3</v>
@@ -7200,16 +7221,16 @@
     </row>
     <row r="243" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E243" s="2">
         <v>3</v>
@@ -7224,21 +7245,23 @@
     </row>
     <row r="244" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E244" s="2">
         <v>3</v>
       </c>
-      <c r="F244" s="2"/>
+      <c r="F244" s="2">
+        <v>1</v>
+      </c>
       <c r="G244" s="8"/>
       <c r="J244" s="9">
         <v>1</v>
@@ -7246,16 +7269,16 @@
     </row>
     <row r="245" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>319</v>
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E245" s="2">
         <v>3</v>
@@ -7268,19 +7291,19 @@
     </row>
     <row r="246" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>146</v>
+        <v>244</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E246" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="8"/>
@@ -7290,16 +7313,16 @@
     </row>
     <row r="247" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>320</v>
+        <v>146</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E247" s="2">
         <v>1</v>
@@ -7310,93 +7333,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E248" s="2">
         <v>1</v>
       </c>
-      <c r="F248" s="2">
-        <v>1</v>
-      </c>
+      <c r="F248" s="2"/>
       <c r="G248" s="8"/>
       <c r="J248" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E249" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F249" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F249" s="2">
+        <v>1</v>
+      </c>
       <c r="G249" s="8"/>
       <c r="J249" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E250" s="2">
-        <v>2</v>
-      </c>
-      <c r="F250" s="2">
-        <v>1</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="F250" s="2"/>
       <c r="G250" s="8"/>
       <c r="J250" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E251" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F251" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F251" s="2">
+        <v>1</v>
+      </c>
       <c r="G251" s="8"/>
       <c r="J251" s="9">
         <v>1</v>
@@ -7404,16 +7427,16 @@
     </row>
     <row r="252" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E252" s="2">
         <v>2.5</v>
@@ -7424,18 +7447,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E253" s="2">
         <v>2.5</v>
@@ -7448,19 +7471,19 @@
     </row>
     <row r="254" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E254" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="8"/>
@@ -7470,45 +7493,45 @@
     </row>
     <row r="255" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E255" s="2">
         <v>3</v>
       </c>
-      <c r="F255" s="2">
-        <v>1</v>
-      </c>
+      <c r="F255" s="2"/>
       <c r="G255" s="8"/>
       <c r="J255" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E256" s="2">
         <v>3</v>
       </c>
-      <c r="F256" s="2"/>
+      <c r="F256" s="2">
+        <v>1</v>
+      </c>
       <c r="G256" s="8"/>
       <c r="J256" s="9">
         <v>1</v>
@@ -7516,16 +7539,16 @@
     </row>
     <row r="257" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E257" s="2">
         <v>3</v>
@@ -7538,23 +7561,21 @@
     </row>
     <row r="258" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E258" s="2">
-        <v>1</v>
-      </c>
-      <c r="F258" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F258" s="2"/>
       <c r="G258" s="8"/>
       <c r="J258" s="9">
         <v>1</v>
@@ -7562,16 +7583,16 @@
     </row>
     <row r="259" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="E259" s="2">
         <v>1</v>
@@ -7586,38 +7607,40 @@
     </row>
     <row r="260" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E260" s="2">
-        <v>2</v>
-      </c>
-      <c r="F260" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F260" s="2">
+        <v>1</v>
+      </c>
       <c r="G260" s="8"/>
       <c r="J260" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E261" s="2">
         <v>2</v>
@@ -7630,23 +7653,21 @@
     </row>
     <row r="262" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E262" s="2">
         <v>2</v>
       </c>
-      <c r="F262" s="2">
-        <v>1</v>
-      </c>
+      <c r="F262" s="2"/>
       <c r="G262" s="8"/>
       <c r="J262" s="9">
         <v>1</v>
@@ -7654,21 +7675,23 @@
     </row>
     <row r="263" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E263" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F263" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F263" s="2">
+        <v>1</v>
+      </c>
       <c r="G263" s="8"/>
       <c r="J263" s="9">
         <v>1</v>
@@ -7676,19 +7699,19 @@
     </row>
     <row r="264" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E264" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="8"/>
@@ -7696,18 +7719,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E265" s="2">
         <v>3</v>
@@ -7718,47 +7741,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E266" s="2">
         <v>3</v>
       </c>
-      <c r="F266" s="2">
-        <v>1</v>
-      </c>
+      <c r="F266" s="2"/>
       <c r="G266" s="8"/>
       <c r="J266" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E267" s="2">
         <v>3</v>
       </c>
-      <c r="F267" s="2"/>
+      <c r="F267" s="2">
+        <v>1</v>
+      </c>
       <c r="G267" s="8"/>
       <c r="J267" s="9">
         <v>1</v>
@@ -7766,19 +7789,19 @@
     </row>
     <row r="268" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E268" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="8"/>
@@ -7788,23 +7811,21 @@
     </row>
     <row r="269" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>340</v>
+        <v>151</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E269" s="2">
         <v>1</v>
       </c>
-      <c r="F269" s="2">
-        <v>1</v>
-      </c>
+      <c r="F269" s="2"/>
       <c r="G269" s="8"/>
       <c r="J269" s="9">
         <v>1</v>
@@ -7812,16 +7833,16 @@
     </row>
     <row r="270" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -7836,21 +7857,23 @@
     </row>
     <row r="271" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E271" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F271" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F271" s="2">
+        <v>1</v>
+      </c>
       <c r="G271" s="8"/>
       <c r="J271" s="9">
         <v>1</v>
@@ -7858,19 +7881,19 @@
     </row>
     <row r="272" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E272" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="8"/>
@@ -7880,16 +7903,16 @@
     </row>
     <row r="273" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E273" s="2">
         <v>2</v>
@@ -7902,16 +7925,16 @@
     </row>
     <row r="274" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E274" s="2">
         <v>2</v>
@@ -7924,23 +7947,21 @@
     </row>
     <row r="275" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E275" s="2">
         <v>2</v>
       </c>
-      <c r="F275" s="2">
-        <v>1</v>
-      </c>
+      <c r="F275" s="2"/>
       <c r="G275" s="8"/>
       <c r="J275" s="9">
         <v>1</v>
@@ -7948,38 +7969,40 @@
     </row>
     <row r="276" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E276" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F276" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1</v>
+      </c>
       <c r="G276" s="8"/>
       <c r="J276" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>153</v>
+        <v>275</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E277" s="2">
         <v>2.5</v>
@@ -7990,21 +8013,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>347</v>
+        <v>276</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E278" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="8"/>
@@ -8014,16 +8037,16 @@
     </row>
     <row r="279" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>278</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>348</v>
+        <v>277</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E279" s="2">
         <v>3</v>
@@ -8036,16 +8059,16 @@
     </row>
     <row r="280" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E280" s="2">
         <v>3</v>
@@ -8056,67 +8079,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E281" s="2">
         <v>3</v>
       </c>
-      <c r="F281" s="2">
-        <v>1</v>
-      </c>
+      <c r="F281" s="2"/>
       <c r="G281" s="8"/>
       <c r="J281" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E282" s="2">
         <v>3</v>
       </c>
-      <c r="F282" s="2"/>
+      <c r="F282" s="2">
+        <v>1</v>
+      </c>
       <c r="G282" s="8"/>
       <c r="J282" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E283" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="8"/>
@@ -8124,42 +8147,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
       </c>
-      <c r="F284" s="2">
-        <v>1</v>
-      </c>
+      <c r="F284" s="2"/>
       <c r="G284" s="8"/>
       <c r="J284" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -8172,43 +8193,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E286" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F286" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F286" s="2">
+        <v>1</v>
+      </c>
       <c r="G286" s="8"/>
       <c r="J286" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E287" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="8"/>
@@ -8218,23 +8241,21 @@
     </row>
     <row r="288" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E288" s="2">
         <v>2</v>
       </c>
-      <c r="F288" s="2">
-        <v>1</v>
-      </c>
+      <c r="F288" s="2"/>
       <c r="G288" s="8"/>
       <c r="J288" s="9">
         <v>1</v>
@@ -8242,16 +8263,16 @@
     </row>
     <row r="289" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E289" s="2">
         <v>2</v>
@@ -8266,21 +8287,23 @@
     </row>
     <row r="290" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E290" s="2">
-        <v>3</v>
-      </c>
-      <c r="F290" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F290" s="2">
+        <v>1</v>
+      </c>
       <c r="G290" s="8"/>
       <c r="J290" s="9">
         <v>1</v>
@@ -8288,16 +8311,16 @@
     </row>
     <row r="291" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E291" s="2">
         <v>3</v>
@@ -8308,18 +8331,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E292" s="2">
         <v>3</v>
@@ -8330,18 +8353,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E293" s="2">
         <v>3</v>
@@ -8354,16 +8377,16 @@
     </row>
     <row r="294" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E294" s="2">
         <v>3</v>
@@ -8376,16 +8399,16 @@
     </row>
     <row r="295" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E295" s="2">
         <v>3</v>
@@ -8398,16 +8421,16 @@
     </row>
     <row r="296" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E296" s="2">
         <v>3</v>
@@ -8418,47 +8441,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E297" s="2">
         <v>3</v>
       </c>
-      <c r="F297" s="2">
-        <v>1</v>
-      </c>
+      <c r="F297" s="2"/>
       <c r="G297" s="8"/>
       <c r="J297" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E298" s="2">
         <v>3</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="2">
+        <v>1</v>
+      </c>
       <c r="G298" s="8"/>
       <c r="J298" s="9">
         <v>1</v>
@@ -8466,19 +8489,19 @@
     </row>
     <row r="299" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E299" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="8"/>
@@ -8488,16 +8511,16 @@
     </row>
     <row r="300" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -8510,23 +8533,21 @@
     </row>
     <row r="301" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
       </c>
-      <c r="F301" s="2">
-        <v>1</v>
-      </c>
+      <c r="F301" s="2"/>
       <c r="G301" s="8"/>
       <c r="J301" s="9">
         <v>1</v>
@@ -8534,21 +8555,23 @@
     </row>
     <row r="302" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E302" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F302" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1</v>
+      </c>
       <c r="G302" s="8"/>
       <c r="J302" s="9">
         <v>1</v>
@@ -8556,19 +8579,19 @@
     </row>
     <row r="303" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E303" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="8"/>
@@ -8578,23 +8601,21 @@
     </row>
     <row r="304" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E304" s="2">
         <v>2</v>
       </c>
-      <c r="F304" s="2">
-        <v>1</v>
-      </c>
+      <c r="F304" s="2"/>
       <c r="G304" s="8"/>
       <c r="J304" s="9">
         <v>1</v>
@@ -8602,28 +8623,49 @@
     </row>
     <row r="305" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E305" s="2">
-        <v>3</v>
-      </c>
-      <c r="F305" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F305" s="2">
+        <v>1</v>
+      </c>
       <c r="G305" s="8"/>
       <c r="J305" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C306" s="5"/>
+    <row r="306" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="2">
+        <v>3</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" s="8"/>
+      <c r="J306" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
@@ -8672,6 +8714,9 @@
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
